--- a/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.8052384915693087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.159789524859382</v>
+        <v>2.159789524859383</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.178517584616113</v>
@@ -655,7 +655,7 @@
         <v>6.242872159683806</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.666749395430245</v>
+        <v>3.666749395430244</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.940244882576855</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.584635473302681</v>
+        <v>-1.508601607253523</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.543750838502998</v>
+        <v>-1.526323950580523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2864870280462272</v>
+        <v>-0.3034265644051771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.0104909656719937</v>
+        <v>0.06427893669594016</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.501256765110708</v>
+        <v>2.527512925158139</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.453927984140903</v>
+        <v>0.4039062064930807</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04460269141035569</v>
+        <v>0.09143775126818689</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.167836284042643</v>
+        <v>1.250390205421728</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.022869692147991</v>
+        <v>1.015599710727352</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.331615670111145</v>
+        <v>3.155885670605572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.327999411737376</v>
+        <v>3.350695711644955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.502842042776089</v>
+        <v>4.515726207794756</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.976671401804774</v>
+        <v>6.883880023414951</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.63443541659985</v>
+        <v>10.47398366979917</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.195380415721186</v>
+        <v>6.145752568476575</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.063493939874265</v>
+        <v>4.069935554653437</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.874284174415395</v>
+        <v>5.768616396661728</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.636469273470261</v>
+        <v>4.677030941808676</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5295178236178395</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.420258793698899</v>
+        <v>1.4202587936989</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.257805785184871</v>
@@ -780,31 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7606808630578237</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>-0.7687901141876684</v>
-      </c>
+        <v>-0.7174266579869902</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.2870051442542665</v>
+        <v>-0.2483600564675164</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1499996445210505</v>
+        <v>-0.1631013156865359</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3928918467549906</v>
+        <v>0.4085111687811268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.006883491064260651</v>
+        <v>0.008031033771996914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05552299146478242</v>
+        <v>-0.04211144288350353</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.365228664507975</v>
+        <v>0.2808204847984077</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2923749029727411</v>
+        <v>0.2713397986485137</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7.769612684868171</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>6.362837680075226</v>
-      </c>
+        <v>6.075392797501927</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>10.69478157967076</v>
+        <v>9.01375618617948</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.143375601714591</v>
+        <v>5.396462031325367</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>9.089873208268768</v>
+        <v>8.668844795577765</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.342502930162871</v>
+        <v>5.505204758213339</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.467324922596522</v>
+        <v>3.495892284714145</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.013769104299099</v>
+        <v>4.583507709956131</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.472160538100164</v>
+        <v>4.207236593493501</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.669737837631235</v>
+        <v>-0.6288445882604813</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3306528087527908</v>
+        <v>-0.5338804567725018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.469994550565882</v>
+        <v>1.585936768857765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.367029122657808</v>
+        <v>-1.036575798695409</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.972976707979187</v>
+        <v>-1.887481872535935</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.415864410376496</v>
+        <v>2.398120377908366</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3617561891343463</v>
+        <v>-0.4841066696547809</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6801682090762337</v>
+        <v>-0.4934220298812728</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.663102209122756</v>
+        <v>2.821971062632518</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.417850075084305</v>
+        <v>3.428298527927103</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.181417782487</v>
+        <v>2.933603449237625</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.118403001409241</v>
+        <v>6.140830361833757</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.485704507891179</v>
+        <v>5.198817187777081</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.192354643342605</v>
+        <v>4.352541972904308</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.525485825349596</v>
+        <v>8.362299746515713</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.627793501881607</v>
+        <v>3.353183392628742</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.103228265286671</v>
+        <v>3.10073583954228</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.356080652157173</v>
+        <v>6.455289776444037</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4754461080821068</v>
+        <v>-0.460584358007635</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2378678110832613</v>
+        <v>-0.352367861778983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5385899404501437</v>
+        <v>0.4106470343912041</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2155865430398712</v>
+        <v>-0.1909890608388705</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2871626645566472</v>
+        <v>-0.2730800062470495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2983502311957838</v>
+        <v>0.309588504875233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1116332278659644</v>
+        <v>-0.1112313516375666</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1467713459966465</v>
+        <v>-0.1222829054169241</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5791144919351113</v>
+        <v>0.5625190529859011</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.430828449903733</v>
+        <v>4.470341220834849</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.857551123955118</v>
+        <v>3.695427600441406</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9.913893800267829</v>
+        <v>7.732120013030655</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.244007903367815</v>
+        <v>1.177263915290313</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.963951028028079</v>
+        <v>1.073510538737978</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.054059271989551</v>
+        <v>2.173581653589867</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.294110070507663</v>
+        <v>1.254212100386315</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.074760987264681</v>
+        <v>1.124041890722801</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.283966975176168</v>
+        <v>2.242629022571105</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1079,7 @@
         <v>3.696791800161197</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.844667724900246</v>
+        <v>9.844667724900248</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.37111220913119</v>
@@ -1103,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06317429862994633</v>
+        <v>0.01989374465262139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4038966581175647</v>
+        <v>-0.4302407283250254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.601816728516571</v>
+        <v>3.695403335997811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.1603373010755371</v>
+        <v>-0.2697274815601472</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.456398557548654</v>
+        <v>1.617579811101821</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.99313199941432</v>
+        <v>7.231277661943067</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2770087519037656</v>
+        <v>0.2598064764859979</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8311992987398958</v>
+        <v>0.8515751244877841</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.355522042121225</v>
+        <v>6.221648393266169</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.112572735831964</v>
+        <v>2.836741766820499</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.876662844866346</v>
+        <v>1.876565286541039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.697042607913486</v>
+        <v>8.622254337732569</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.588886914179419</v>
+        <v>3.818575910829123</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.687808903626317</v>
+        <v>6.678847194531034</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.38482076163024</v>
+        <v>12.74072767051561</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.787238788064917</v>
+        <v>2.868655977556491</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.703759449699854</v>
+        <v>3.811598557812091</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.19489854238785</v>
+        <v>10.02760958835372</v>
       </c>
     </row>
     <row r="19">
@@ -1211,22 +1207,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.4203994289071945</v>
+        <v>-0.4858894517388893</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.327843576329224</v>
+        <v>0.5052992009174969</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.729057782806413</v>
+        <v>2.843782243008921</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1619230708145728</v>
+        <v>-0.103162503971662</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4701935671701072</v>
+        <v>0.5088976286990855</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>4.47873638261015</v>
+        <v>4.818320670847285</v>
       </c>
     </row>
     <row r="21">
@@ -1240,22 +1236,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>13.47132208030521</v>
+        <v>12.25430319443099</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>20.61894975370304</v>
+        <v>23.80780906677764</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>40.70758752484625</v>
+        <v>41.81512757087433</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>11.33920018972539</v>
+        <v>12.65584476959586</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>16.22542974568514</v>
+        <v>16.1476366333924</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>52.83296283427077</v>
+        <v>57.13826969224385</v>
       </c>
     </row>
     <row r="22">
@@ -1305,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.171113097617297</v>
+        <v>-1.221619365276914</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5628034568547684</v>
+        <v>-0.8009513196073771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.788951936274397</v>
+        <v>1.80530040316196</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.338073246605229</v>
+        <v>1.178871790085534</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.966400718914307</v>
+        <v>3.140772792699552</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.884500706597595</v>
+        <v>3.037645020876319</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7394107058976696</v>
+        <v>0.7175827579383361</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.805095612866618</v>
+        <v>1.78146059657135</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.36496991094636</v>
+        <v>3.174615598617735</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.683307964821872</v>
+        <v>2.486776688190325</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.177326749432118</v>
+        <v>3.151655004515096</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.530435125775027</v>
+        <v>7.946733173387627</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.452618832029274</v>
+        <v>7.976563250674445</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.972701038148919</v>
+        <v>10.45731680068483</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.405545122399253</v>
+        <v>9.331640967379352</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.383088148863728</v>
+        <v>4.652026441714538</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.939991212098669</v>
+        <v>5.970665843415143</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.908712852073212</v>
+        <v>7.587764854927889</v>
       </c>
     </row>
     <row r="25">
@@ -1410,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7258574660800645</v>
+        <v>-0.6722264933924701</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4173426499653435</v>
+        <v>-0.6171090977289694</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3587230110795425</v>
+        <v>0.2560711428907423</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1834803623156077</v>
+        <v>0.2246921504418587</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.590959111769043</v>
+        <v>0.6316552236544499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4992500782916964</v>
+        <v>0.5296776836870688</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0963201407864952</v>
+        <v>0.1856056251048581</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5468540818811853</v>
+        <v>0.4421833216053149</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.016963313745714</v>
+        <v>0.9594781589828303</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.53669890373955</v>
+        <v>5.735381824161194</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.83493818405639</v>
+        <v>5.900409945963956</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15.45757888700816</v>
+        <v>16.36607199983657</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.737741041765033</v>
+        <v>4.881935997739476</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5.45108973282526</v>
+        <v>5.848285834858945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.761204026732269</v>
+        <v>5.186959147424151</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.929291842507185</v>
+        <v>3.163520300850915</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.94137690331058</v>
+        <v>4.111106337957196</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.186331011052099</v>
+        <v>5.178819945960011</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1495,7 @@
         <v>3.25434973960118</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.911474383974424</v>
+        <v>4.911474383974422</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.206181756273205</v>
@@ -1519,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.132021705709128</v>
+        <v>-2.352968400935479</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.772179892777883</v>
+        <v>-1.763567368267603</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.613790133674749</v>
+        <v>-1.728077037882384</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.404380701139788</v>
+        <v>5.914211663942288</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.611699072718601</v>
+        <v>-2.036744582258226</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6622151813537107</v>
+        <v>0.4588168222535554</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.778701150156026</v>
+        <v>2.970324546159449</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3110967689522101</v>
+        <v>-0.5337259062670334</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.121071630548456</v>
+        <v>0.6738215401249976</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.49374343300869</v>
+        <v>3.669769726257985</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.875852077706298</v>
+        <v>5.424787677542095</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.785167201755262</v>
+        <v>3.806942602622486</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.40540006458802</v>
+        <v>18.62417852854673</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.432860467581518</v>
+        <v>7.992328484610156</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.113463067615815</v>
+        <v>8.940079791197988</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.637029200454371</v>
+        <v>9.99094332443843</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.408971005654074</v>
+        <v>5.397515098170025</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.387086049143922</v>
+        <v>5.52559156604027</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1600,7 @@
         <v>0.5878496948897355</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8871845219782504</v>
+        <v>0.8871845219782502</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.600176458246277</v>
@@ -1624,31 +1620,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7603504614711668</v>
+        <v>-0.7803444935081465</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5817188310305245</v>
+        <v>-0.6578451596440416</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4878487899417354</v>
+        <v>-0.5463862614541736</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.6627757587295561</v>
+        <v>0.6166908104758562</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2789503106580388</v>
+        <v>-0.2763545963326398</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06234792129231694</v>
+        <v>0.03566620270503096</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4841560910061252</v>
+        <v>0.477084676386026</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1114180416982433</v>
+        <v>-0.1352134601217553</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.005376773057134339</v>
+        <v>0.08312767787583358</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.533074481752645</v>
+        <v>4.411670356285747</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>7.309376901754996</v>
+        <v>5.335153411860741</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.505700984601563</v>
+        <v>4.70266830390122</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>5.260051920148104</v>
+        <v>5.850211556522121</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.28381793601551</v>
+        <v>2.299068465363754</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.132110029592538</v>
+        <v>3.046324882366543</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.829801101018265</v>
+        <v>3.511228645651079</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.108428976920231</v>
+        <v>2.00611937390952</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.142102209208922</v>
+        <v>2.134673681884034</v>
       </c>
     </row>
     <row r="34">
@@ -1704,7 +1700,7 @@
         <v>2.804917213378708</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7.905429479130967</v>
+        <v>7.905429479130966</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.089579606053972</v>
@@ -1713,7 +1709,7 @@
         <v>8.572855517955247</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>13.96483856862737</v>
+        <v>13.96483856862736</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.3676908440721952</v>
@@ -1733,31 +1729,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.130155133261056</v>
+        <v>-2.144119202960644</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.5884039727626251</v>
+        <v>0.4135119965001471</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.89647636145019</v>
+        <v>5.452781871880159</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.889153485831845</v>
+        <v>-1.783957468462404</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.364566274666996</v>
+        <v>4.290764996817545</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>10.29931320835204</v>
+        <v>9.959231069170215</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.279592477213893</v>
+        <v>-1.343995651472407</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.416368732591894</v>
+        <v>3.323706254363026</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>8.689049061808888</v>
+        <v>8.628026506805451</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1764,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.110746380560632</v>
+        <v>1.106796244701012</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.022600503339173</v>
+        <v>5.585436082075439</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.74996550568566</v>
+        <v>11.21166169361388</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.955068978093104</v>
+        <v>4.096344522651047</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.42072483707327</v>
+        <v>13.41279964312972</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>17.53087153486364</v>
+        <v>17.28583525439458</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.224463005277523</v>
+        <v>2.128232218329308</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.316314361436184</v>
+        <v>8.291979167894906</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>13.09754123090357</v>
+        <v>13.3722903899739</v>
       </c>
     </row>
     <row r="37">
@@ -1809,7 +1805,7 @@
         <v>2.571868612896166</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>7.248601082364964</v>
+        <v>7.248601082364963</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.4321091193823549</v>
@@ -1818,7 +1814,7 @@
         <v>3.399851674786492</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>5.538222322332461</v>
+        <v>5.538222322332457</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2025138013339529</v>
@@ -1827,7 +1823,7 @@
         <v>3.164955476139916</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>5.990651925353083</v>
+        <v>5.990651925353085</v>
       </c>
     </row>
     <row r="38">
@@ -1839,28 +1835,28 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.09127061231377466</v>
+        <v>-0.2295426291100043</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.681931774765213</v>
+        <v>1.674250501383002</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.516186487147313</v>
+        <v>-0.533220295323335</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8178001571075174</v>
+        <v>0.8155769586050453</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.178675003362755</v>
+        <v>2.117406077973779</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5465824173317032</v>
+        <v>-0.5347183391486782</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1.186842401519564</v>
+        <v>1.072844112150691</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2.945708834540219</v>
+        <v>2.647515147486457</v>
       </c>
     </row>
     <row r="39">
@@ -1871,27 +1867,29 @@
         </is>
       </c>
       <c r="C39" s="6" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="n">
+        <v>14.3739511659675</v>
+      </c>
       <c r="E39" s="6" t="n">
-        <v>27.40600736705367</v>
+        <v>28.39801596554396</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.925375267874734</v>
+        <v>2.942842651800009</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9.472643917964415</v>
+        <v>9.858605521970501</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>14.56650820778285</v>
+        <v>15.31115019814788</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.152303748292594</v>
+        <v>1.969370501116998</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>7.746177232158957</v>
+        <v>7.626664246988468</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>13.20697856047429</v>
+        <v>13.36953638090078</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1928,7 @@
         <v>3.753177920902723</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>6.213203432556401</v>
+        <v>6.2132034325564</v>
       </c>
     </row>
     <row r="41">
@@ -1941,31 +1939,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.257283500228438</v>
+        <v>-2.316877235697379</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.8818193360616465</v>
+        <v>0.7738727991640428</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.508855094864445</v>
+        <v>1.631570798550028</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.093201283941072</v>
+        <v>-3.142745657809518</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.858379824727214</v>
+        <v>1.895127110087123</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.384643881100409</v>
+        <v>5.88657887193355</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.211194144844243</v>
+        <v>-2.229915546978766</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.18545877629276</v>
+        <v>2.06892137507883</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.610440163028668</v>
+        <v>4.525265592371487</v>
       </c>
     </row>
     <row r="42">
@@ -1976,31 +1974,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.662660182507904</v>
+        <v>0.6618325490193396</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.015476096219366</v>
+        <v>5.039348390469562</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.06098451164661</v>
+        <v>5.88504729441137</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.6886767716952135</v>
+        <v>0.7135091409824847</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.262345414881103</v>
+        <v>7.020649580156656</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.47217591047856</v>
+        <v>11.23355453642817</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.2580892887284613</v>
+        <v>0.4266529929470353</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.704915610085632</v>
+        <v>5.490752022087618</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.161167774023582</v>
+        <v>8.033564698587888</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2033,7 @@
         <v>1.279067879180076</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2.117434639358324</v>
+        <v>2.117434639358323</v>
       </c>
     </row>
     <row r="44">
@@ -2046,31 +2044,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7958091177932094</v>
+        <v>-0.81403234971134</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2652828518775048</v>
+        <v>0.172113008896473</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4207933971062746</v>
+        <v>0.4739462158272567</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6366196022255419</v>
+        <v>-0.6426481468283964</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3458856860353574</v>
+        <v>0.3777040253798208</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.139482098955582</v>
+        <v>1.143321758776979</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6039380046149762</v>
+        <v>-0.6242051589517629</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.5521111191721284</v>
+        <v>0.5245226872729465</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.210124972361968</v>
+        <v>1.147988584412039</v>
       </c>
     </row>
     <row r="45">
@@ -2081,31 +2079,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7313089705496871</v>
+        <v>0.643630892583875</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.9876760260326</v>
+        <v>4.106786484165883</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.829608332128538</v>
+        <v>4.93082916559605</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2803926135250747</v>
+        <v>0.2791883669906757</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.517010819896395</v>
+        <v>2.512945561554904</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.067016472381448</v>
+        <v>4.163978779802435</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1688477864512193</v>
+        <v>0.179658467133015</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.410468550651309</v>
+        <v>2.37034666743012</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.487826806845316</v>
+        <v>3.639776880251285</v>
       </c>
     </row>
     <row r="46">
@@ -2126,7 +2124,7 @@
         <v>-2.781446706335081</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.01315446602073306</v>
+        <v>0.01315446602073236</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.592371844727515</v>
@@ -2135,7 +2133,7 @@
         <v>-0.6257746665373987</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.035378839555853</v>
+        <v>2.035378839555854</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.4186027975434985</v>
@@ -2144,7 +2142,7 @@
         <v>-1.668331638861842</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.036176505030222</v>
+        <v>1.036176505030221</v>
       </c>
     </row>
     <row r="47">
@@ -2155,31 +2153,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.843226574389292</v>
+        <v>-2.813712025909269</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.382323940148297</v>
+        <v>-4.439015603781101</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.93995939972409</v>
+        <v>-2.004378903730038</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.9281445745176127</v>
+        <v>-0.9411718082637464</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.892436106022795</v>
+        <v>-2.996271145932385</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.3497829849523499</v>
+        <v>-0.3325991791115788</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.167699874436421</v>
+        <v>-1.357433213855515</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.175954338884719</v>
+        <v>-3.139068795339322</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.4045650027962633</v>
+        <v>-0.4235637210152496</v>
       </c>
     </row>
     <row r="48">
@@ -2190,31 +2188,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.015138974063411</v>
+        <v>1.05257809290148</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.194917379936677</v>
+        <v>-1.313320654514003</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.804751432050911</v>
+        <v>1.882313403782979</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.266588376162258</v>
+        <v>4.315804045555984</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.884972929619275</v>
+        <v>1.730856354245345</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.141010552960086</v>
+        <v>4.247562699133333</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.105760379439237</v>
+        <v>1.929459189994782</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.1171304559687406</v>
+        <v>-0.1653790981448153</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.670473428681992</v>
+        <v>2.599360800383674</v>
       </c>
     </row>
     <row r="49">
@@ -2231,7 +2229,7 @@
         <v>-0.7163972890812959</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.003388101513899686</v>
+        <v>0.003388101513899508</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2600877961869864</v>
@@ -2240,7 +2238,7 @@
         <v>-0.1022100173827232</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3324457152005811</v>
+        <v>0.3324457152005813</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.0831818198143843</v>
@@ -2249,7 +2247,7 @@
         <v>-0.3315191933470574</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2059017470574023</v>
+        <v>0.205901747057402</v>
       </c>
     </row>
     <row r="50">
@@ -2260,31 +2258,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5846731245357154</v>
+        <v>-0.5783711511812768</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8832877560739545</v>
+        <v>-0.8891841611703577</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3894104894103295</v>
+        <v>-0.3982104378236477</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1380937019854233</v>
+        <v>-0.135316103520969</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4095976604230351</v>
+        <v>-0.4253837350986476</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.05339859145047077</v>
+        <v>-0.05823232679750961</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.202318883609214</v>
+        <v>-0.2336092729161797</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5366773954255246</v>
+        <v>-0.5470448987043635</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.07681002453903166</v>
+        <v>-0.08077589783218117</v>
       </c>
     </row>
     <row r="51">
@@ -2295,31 +2293,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3487422502175095</v>
+        <v>0.3823584982177483</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3385826362669498</v>
+        <v>-0.3575012026998006</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6322174355299361</v>
+        <v>0.7021004195262774</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8573275984935209</v>
+        <v>0.8976580264455108</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.390659428626496</v>
+        <v>0.3533765167116301</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8855445849539504</v>
+        <v>0.8683621261663922</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5344791243868945</v>
+        <v>0.4544886382332494</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.01172090890994978</v>
+        <v>-0.05857027166699639</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.661464669850702</v>
+        <v>0.6035336462663038</v>
       </c>
     </row>
     <row r="52">
@@ -2369,31 +2367,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.6477673826750117</v>
+        <v>-0.6500944384661768</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.09296979399016059</v>
+        <v>-0.1192878247985685</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.302112935901353</v>
+        <v>2.324407331450042</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.085077130650916</v>
+        <v>1.030456603305638</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.265985746542035</v>
+        <v>2.216688554926496</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>5.142448998175251</v>
+        <v>5.291590293476703</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.4265779616499215</v>
+        <v>0.4759557017561376</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.39412096644263</v>
+        <v>1.342263534225786</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>4.088864809222616</v>
+        <v>4.043812876649446</v>
       </c>
     </row>
     <row r="54">
@@ -2404,31 +2402,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.8573509652099989</v>
+        <v>0.7833367339400068</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.439677109939546</v>
+        <v>1.394848556110943</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.004918285748715</v>
+        <v>4.020162751653167</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.207766156676505</v>
+        <v>3.228625994261614</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.552586507118252</v>
+        <v>4.530454958308399</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.272654497541279</v>
+        <v>7.261713929767205</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.799176596948537</v>
+        <v>1.814102543534105</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.786756357500351</v>
+        <v>2.714205845988232</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>5.487949038709054</v>
+        <v>5.442493798613715</v>
       </c>
     </row>
     <row r="55">
@@ -2474,31 +2472,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2784418895959542</v>
+        <v>-0.2868257114130657</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.044456096440857</v>
+        <v>-0.05977359721374072</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.967905822728923</v>
+        <v>0.9884302642946051</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2248776569874407</v>
+        <v>0.2147105864141954</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.4577668570990235</v>
+        <v>0.4654561013830694</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.068308973486432</v>
+        <v>1.087735675346628</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1260106909280423</v>
+        <v>0.1370629102200018</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.4062870394724362</v>
+        <v>0.3876277066959277</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.206435704833662</v>
+        <v>1.172962138549091</v>
       </c>
     </row>
     <row r="57">
@@ -2509,31 +2507,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.5164442906234104</v>
+        <v>0.4634870243746602</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.8529223607946551</v>
+        <v>0.8170620591697721</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>2.386573152052417</v>
+        <v>2.413611246526841</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8687269411081519</v>
+        <v>0.889510224671619</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.234261610663283</v>
+        <v>1.217481562196059</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.986048020341825</v>
+        <v>2.000461724000596</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.6442239964934441</v>
+        <v>0.6539507662383941</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.9844403381392225</v>
+        <v>0.9768125025569646</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.991636555511175</v>
+        <v>1.952765757362556</v>
       </c>
     </row>
     <row r="58">
